--- a/FileStorage/ExcelFiles/Book2.xlsx
+++ b/FileStorage/ExcelFiles/Book2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bocai\OneDrive\Desktop\facultate\AN 3 S1\IS\campus-server\FileStorage\ExcelFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bocai\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43AAAA1A-63E8-4697-9E94-0B8EA6AB153F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71665D54-2809-45E7-8CC3-C676DEC25266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D36BC047-7F5E-4CAC-B9BB-58A8D911F535}"/>
   </bookViews>
@@ -25,33 +25,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Email</t>
   </si>
   <si>
-    <t>Name</t>
+    <t>bocaioandoru12+4@gmail.com</t>
   </si>
   <si>
-    <t>Role</t>
+    <t>bocaioandoru12+3@gmail.com</t>
   </si>
   <si>
-    <t>bocaioandoru12@gmail.com</t>
-  </si>
-  <si>
-    <t>Doru</t>
-  </si>
-  <si>
-    <t>Student</t>
-  </si>
-  <si>
-    <t>birlea24@gmail.com</t>
-  </si>
-  <si>
-    <t>Alex</t>
-  </si>
-  <si>
-    <t>Professor</t>
+    <t>bocaioandoru12+2@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -420,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{419E23F4-DD5D-4C26-ADA2-A2F3675EFC65}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -432,43 +417,32 @@
     <col min="3" max="3" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{F4EAC490-DB10-4F23-83E3-557F21B471E6}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{3B9A4BC3-939E-4A92-A2C6-7B1F3258D5B5}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{0D462C5C-1202-453A-880B-57BAD3F1FCB5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/FileStorage/ExcelFiles/Book2.xlsx
+++ b/FileStorage/ExcelFiles/Book2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bocai\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71665D54-2809-45E7-8CC3-C676DEC25266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC1DD358-AC2C-4C78-8CA5-1F7E882A536F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D36BC047-7F5E-4CAC-B9BB-58A8D911F535}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Email</t>
   </si>
@@ -34,9 +34,6 @@
   </si>
   <si>
     <t>bocaioandoru12+3@gmail.com</t>
-  </si>
-  <si>
-    <t>bocaioandoru12+2@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -405,15 +402,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{419E23F4-DD5D-4C26-ADA2-A2F3675EFC65}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.77734375" customWidth="1"/>
+    <col min="1" max="1" width="27.44140625" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
   </cols>
   <sheetData>
@@ -424,25 +421,19 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{F4EAC490-DB10-4F23-83E3-557F21B471E6}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{3B9A4BC3-939E-4A92-A2C6-7B1F3258D5B5}"/>
-    <hyperlink ref="A4" r:id="rId3" xr:uid="{0D462C5C-1202-453A-880B-57BAD3F1FCB5}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{3B9A4BC3-939E-4A92-A2C6-7B1F3258D5B5}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{0D462C5C-1202-453A-880B-57BAD3F1FCB5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
